--- a/TVIMS/ЛР3 Критерии значимости В14.xlsx
+++ b/TVIMS/ЛР3 Критерии значимости В14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yana\Desktop\3 тервер\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\3sem\TVIMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2530FB-713F-4136-A03C-97D23D145A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE5A3D6-F5C0-4AA3-AF00-0A4BB5B134CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t>Задача 1</t>
   </si>
@@ -140,9 +140,6 @@
     <t>t-tabl=</t>
   </si>
   <si>
-    <t>fокругл=</t>
-  </si>
-  <si>
     <t>Двухвыборочный F-тест для дисперсии</t>
   </si>
   <si>
@@ -179,61 +176,47 @@
     <t>ni</t>
   </si>
   <si>
-    <t>F rasch=</t>
-  </si>
-  <si>
-    <t>F tabl=</t>
-  </si>
-  <si>
     <t>f1=</t>
   </si>
   <si>
     <t>f2=</t>
   </si>
   <si>
-    <t xml:space="preserve">Чтобы определить силу сцепления клеевых соединений двух стекол, были проведены испытания на растяжение. Исследовались образцы, у которых обработка 
-склеиваемых поверхностей производилась двумя методами: перекрестной шлифовкой и торцевой обточкой. Можно ли считать соединения, произведенные двумя методами, одинаково прочными? </t>
-  </si>
-  <si>
-    <t>на уровне значимости 0,05 можно утверждать, что гипотеза H0 не 
-противоречит экспериментальным данным</t>
-  </si>
-  <si>
     <t>а1 = а2</t>
   </si>
   <si>
     <t>независ</t>
   </si>
   <si>
-    <t>неоднор</t>
-  </si>
-  <si>
-    <t>4 пункт теории случай 2</t>
-  </si>
-  <si>
     <t>s2 =</t>
   </si>
   <si>
-    <t>tрасч &lt; tтабл =&gt; гипотеза принимается</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t расч = </t>
-  </si>
-  <si>
-    <t>t табл =</t>
-  </si>
-  <si>
-    <t>Поскольку t расч &lt; t табл , то на уровне значимости 0,05 гипотеза H0 о равенстве дисперсий должна быть принята.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> количество степеней свободы</t>
+  </si>
+  <si>
+    <t>Степень сводобы</t>
+  </si>
+  <si>
+    <t>Сумма</t>
+  </si>
+  <si>
+    <t>С нарастающим итогом</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>U rasch=</t>
+  </si>
+  <si>
+    <t>U tabl=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,13 +231,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -278,15 +254,8 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,14 +280,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="45">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -434,28 +397,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -695,32 +636,6 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -862,79 +777,68 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -949,98 +853,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1327,22 +1156,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7924D4-3F3A-4F44-9F38-FE63C9394FE6}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="108" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" customWidth="1"/>
+    <col min="1" max="1" width="26.796875" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.46484375" customWidth="1"/>
+    <col min="6" max="6" width="11.86328125" customWidth="1"/>
+    <col min="7" max="8" width="8.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1360,20 +1189,20 @@
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1407,24 +1236,24 @@
       <c r="K2" s="13">
         <v>18</v>
       </c>
-      <c r="L2" s="27">
+      <c r="L2" s="24">
         <f>COUNT(B2:K2)</f>
         <v>10</v>
       </c>
-      <c r="M2" s="22">
+      <c r="M2" s="20">
         <f>AVERAGE(B2:K2)</f>
         <v>17.399999999999999</v>
       </c>
-      <c r="N2" s="22">
+      <c r="N2" s="20">
         <f>_xlfn.VAR.S(B2:K2)</f>
         <v>3.6000000000000103</v>
       </c>
-      <c r="O2" s="28">
+      <c r="O2" s="25">
         <f>L2-1</f>
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1458,7 +1287,7 @@
       <c r="K3" s="14">
         <v>15</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="26">
         <f>COUNT(B3:K3)</f>
         <v>10</v>
       </c>
@@ -1470,23 +1299,23 @@
         <f>_xlfn.VAR.S(B3:K3)</f>
         <v>10.10000000000001</v>
       </c>
-      <c r="O3" s="30">
+      <c r="O3" s="27">
         <f>L3-1</f>
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="59">
         <f>N3/N2</f>
         <v>2.8055555555555505</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="59">
         <f>_xlfn.F.INV.RT(C1/2,O2,O3)</f>
         <v>4.0259941582829777</v>
       </c>
@@ -1497,88 +1326,64 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="19"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5">
-        <v>1.96</v>
+      <c r="B5" s="59">
+        <v>1.9658</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="59">
         <f>_xlfn.T.INV.2T(C1,F4)</f>
         <v>2.1009220402410378</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G5">
         <v>6.85</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="31">
-        <f>(N2/L2+N3/L3)^2/((N2/L2)^2/(L2-1)+(N3/L3)^2/(L3-1))</f>
-        <v>14.692615464903895</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L6" s="20"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="32" t="s">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="F7" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A8" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="O6" s="33">
-        <f>ROUNDUP(O5,0)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F7" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="36"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="36"/>
-    </row>
-    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F9" s="84" t="s">
+      <c r="B8" s="30"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="F9" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="85"/>
-      <c r="H9" s="82" t="s">
+      <c r="G9" s="69"/>
+      <c r="H9" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="83"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
-      <c r="B10" s="41" t="s">
+      <c r="I9" s="67"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="33" t="s">
         <v>10</v>
       </c>
       <c r="G10">
@@ -1587,27 +1392,19 @@
       <c r="H10">
         <v>15.1</v>
       </c>
-      <c r="I10" s="43"/>
-      <c r="K10" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="73"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
+      <c r="I10" s="34"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A11" s="33" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <v>17.399999999999999</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="34">
         <v>15.1</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="33" t="s">
         <v>11</v>
       </c>
       <c r="G11">
@@ -1616,25 +1413,19 @@
       <c r="H11">
         <v>10.10000000000001</v>
       </c>
-      <c r="J11" s="64"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="75"/>
-      <c r="P11" s="76"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
+      <c r="J11" s="53"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A12" s="33" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <v>3.6000000000000103</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="34">
         <v>10.10000000000001</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="33" t="s">
         <v>12</v>
       </c>
       <c r="G12">
@@ -1643,284 +1434,179 @@
       <c r="H12">
         <v>10</v>
       </c>
-      <c r="J12" s="66"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="76"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="J12" s="55"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A13" s="33" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="34">
         <v>10</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="J13" s="66"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="76"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
-        <v>15</v>
+      <c r="J13" s="55"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A14" s="33" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>9</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="34">
         <v>9</v>
       </c>
-      <c r="D14" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="37">
-        <f>1/B15</f>
-        <v>2.8055555555555505</v>
-      </c>
-      <c r="F14" s="42" t="s">
+      <c r="E14" s="59"/>
+      <c r="F14" s="33" t="s">
         <v>15</v>
       </c>
       <c r="G14">
         <v>15</v>
       </c>
-      <c r="J14" s="66"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="76"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
+      <c r="J14" s="55"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A15" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="59">
+        <v>0.35643564356435697</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="59">
+        <v>1.9658</v>
+      </c>
+      <c r="J15" s="55"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A16" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B15">
-        <v>0.35643564356435709</v>
-      </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15">
-        <v>1.9650226127485479</v>
-      </c>
-      <c r="J15" s="66"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="76"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="B16" s="59">
+        <v>7.0173592370303295E-2</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="65">
+        <v>3.4105432949225641E-2</v>
+      </c>
+      <c r="J16" s="55"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A17" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B16">
-        <v>7.0173592370303295E-2</v>
-      </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="39">
-        <f>1/B17</f>
-        <v>4.0259941582829759</v>
-      </c>
-      <c r="F16" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="48">
-        <v>3.4105432949225641E-2</v>
-      </c>
-      <c r="J16" s="66"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="76"/>
-    </row>
-    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="45">
-        <v>0.24838585469445501</v>
-      </c>
-      <c r="C17" s="46"/>
-      <c r="F17" s="42" t="s">
+      <c r="B17" s="64">
+        <v>0.31457490615130801</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="F17" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="59">
         <v>1.7530503556925723</v>
       </c>
-      <c r="J17" s="66"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="78"/>
-      <c r="O17" s="78"/>
-      <c r="P17" s="79"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F18" s="42" t="s">
+      <c r="J17" s="55"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="F18" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="59">
         <v>6.8210865898451281E-2</v>
       </c>
-      <c r="J18" s="66"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F19" s="44" t="s">
+      <c r="J18" s="55"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="F19" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="45">
-        <v>2.1314495455597742</v>
-      </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="46"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-    </row>
-    <row r="22" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="80" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="65"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="65"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="65"/>
+      <c r="G19" s="64">
+        <f>D5</f>
+        <v>2.1009220402410378</v>
+      </c>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+    </row>
+    <row r="22" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A23" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="52"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A26" s="52"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="F27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="F28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="K10:P17"/>
-    <mergeCell ref="F22:I26"/>
+  <mergeCells count="2">
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="F9:G9"/>
   </mergeCells>
@@ -1931,90 +1617,84 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD36589-5DF1-49A8-B3A2-F3404C0B9031}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScale="119" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="48" t="s">
+    <row r="1" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48">
+      <c r="C1" s="39">
         <v>0.05</v>
       </c>
-      <c r="D1" s="48"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="15">
-        <f>C3/C4</f>
-        <v>1.2738095238095239</v>
+        <v>56</v>
+      </c>
+      <c r="F1" s="62">
+        <f>2.02</f>
+        <v>2.02</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H1" s="16">
         <f>D3-1</f>
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="61">
-        <v>2.65</v>
-      </c>
-      <c r="G2" s="62" t="s">
-        <v>50</v>
+      <c r="E2" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="63">
+        <v>0.4788</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="H2" s="19">
         <f>D4-1</f>
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="40">
+        <v>45.3</v>
+      </c>
+      <c r="C3" s="40">
+        <v>1.07</v>
+      </c>
+      <c r="D3" s="51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="B3" s="49">
-        <v>45.3</v>
-      </c>
-      <c r="C3" s="49">
-        <v>1.07</v>
-      </c>
-      <c r="D3" s="60">
-        <v>15</v>
-      </c>
-      <c r="E3" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="88"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="B4" s="6">
         <v>46.1</v>
@@ -2025,99 +1705,29 @@
       <c r="D4" s="14">
         <v>10</v>
       </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="91"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E5" s="89"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="91"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="48">
-        <v>2</v>
-      </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="91"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="48">
-        <v>0.98</v>
-      </c>
-      <c r="E7" s="89"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="91"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="48">
-        <v>2.7</v>
-      </c>
-      <c r="E8" s="92"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="94"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="95" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="97"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="98"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="100"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E3:H8"/>
-    <mergeCell ref="B10:H11"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C905D5EA-9606-479D-90C8-0788065DAC86}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="103" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:H16"/>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="46" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="18" t="s">
@@ -2127,7 +1737,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -2158,46 +1768,46 @@
       <c r="J2" s="4">
         <v>7625</v>
       </c>
-      <c r="K2" s="51">
+      <c r="K2" s="42">
         <v>7679</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="40">
         <v>1507</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="40">
         <v>858</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="40">
         <v>1205</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="40">
         <v>832</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F3" s="40">
         <v>2206</v>
       </c>
-      <c r="G3" s="49">
+      <c r="G3" s="40">
         <v>924</v>
       </c>
-      <c r="H3" s="49">
+      <c r="H3" s="40">
         <v>4607</v>
       </c>
-      <c r="I3" s="49">
+      <c r="I3" s="40">
         <v>2592</v>
       </c>
-      <c r="J3" s="49">
+      <c r="J3" s="40">
         <v>1930</v>
       </c>
-      <c r="K3" s="53">
+      <c r="K3" s="44">
         <v>5378</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -2228,11 +1838,11 @@
       <c r="J4" s="6">
         <v>2050</v>
       </c>
-      <c r="K4" s="54">
+      <c r="K4" s="45">
         <v>5278</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
@@ -2277,29 +1887,29 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="56">
+      <c r="B6" s="47">
         <f>COUNT(B5:K5)</f>
         <v>10</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="47">
         <f>AVERAGE(B5:K5)</f>
         <v>6.5</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="56">
+      <c r="F6" s="47">
         <f>_xlfn.VAR.S(B5:K5)/100</f>
         <v>100.55611111111111</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="47" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="12">
@@ -2307,35 +1917,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="57" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="58">
+      <c r="B7" s="61">
         <f>ABS(D6)*SQRT(B6)/F6</f>
         <v>0.20441129399268534</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="49">
         <f>_xlfn.T.INV.2T(C1,H6)</f>
         <v>2.2621571627982053</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+    </row>
+    <row r="10" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>22</v>
@@ -2344,33 +1954,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="59">
         <v>2203.9</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="59">
         <v>2197.4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="59">
         <v>2543402.0999999996</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="59">
         <v>2372112.9333333331</v>
       </c>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2380,36 +1986,24 @@
       <c r="C14">
         <v>10</v>
       </c>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="59">
         <v>0.99856076617953327</v>
       </c>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2417,66 +2011,58 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="59">
         <v>0.2049788829395523</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="59">
         <v>0.42107475450801263</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="59">
         <v>1.8331129326562374</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="59">
         <v>0.84214950901602526</v>
       </c>
-      <c r="E21" s="69"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-    </row>
-    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+    </row>
+    <row r="22" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="60">
         <v>2.2621571627982053</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
